--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>408.8041676659761</v>
+        <v>406.2906344044232</v>
       </c>
       <c r="R2">
-        <v>3679.237508993785</v>
+        <v>3656.615709639809</v>
       </c>
       <c r="S2">
-        <v>0.0206893597218207</v>
+        <v>0.02613714959608004</v>
       </c>
       <c r="T2">
-        <v>0.0206893597218207</v>
+        <v>0.02613714959608003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>170.3389677917013</v>
+        <v>183.097740310016</v>
       </c>
       <c r="R3">
-        <v>1533.050710125312</v>
+        <v>1647.879662790144</v>
       </c>
       <c r="S3">
-        <v>0.008620763822950257</v>
+        <v>0.01177889083316512</v>
       </c>
       <c r="T3">
-        <v>0.008620763822950258</v>
+        <v>0.01177889083316512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>14.17996819214456</v>
+        <v>37.788093254806</v>
       </c>
       <c r="R4">
-        <v>127.619713729301</v>
+        <v>340.092839293254</v>
       </c>
       <c r="S4">
-        <v>0.0007176405868028316</v>
+        <v>0.002430952039540133</v>
       </c>
       <c r="T4">
-        <v>0.0007176405868028314</v>
+        <v>0.002430952039540133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>16.43098977497722</v>
+        <v>24.52443412084866</v>
       </c>
       <c r="R5">
-        <v>147.878907974795</v>
+        <v>220.719907087638</v>
       </c>
       <c r="S5">
-        <v>0.0008315635820959231</v>
+        <v>0.001577685403247023</v>
       </c>
       <c r="T5">
-        <v>0.0008315635820959231</v>
+        <v>0.001577685403247022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>13.288312638522</v>
+        <v>18.57813706250267</v>
       </c>
       <c r="R6">
-        <v>119.594813746698</v>
+        <v>167.203233562524</v>
       </c>
       <c r="S6">
-        <v>0.0006725143773461573</v>
+        <v>0.001195153189614909</v>
       </c>
       <c r="T6">
-        <v>0.0006725143773461572</v>
+        <v>0.001195153189614908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>8998.958425357305</v>
+        <v>8320.410793925863</v>
       </c>
       <c r="R7">
-        <v>80990.62582821575</v>
+        <v>74883.69714533277</v>
       </c>
       <c r="S7">
-        <v>0.455432460600675</v>
+        <v>0.5352617146601688</v>
       </c>
       <c r="T7">
-        <v>0.4554324606006751</v>
+        <v>0.5352617146601687</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>3749.651815262976</v>
@@ -948,10 +948,10 @@
         <v>33746.86633736678</v>
       </c>
       <c r="S8">
-        <v>0.1897678677800091</v>
+        <v>0.2412194673707066</v>
       </c>
       <c r="T8">
-        <v>0.1897678677800093</v>
+        <v>0.2412194673707066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>312.1419846635729</v>
+        <v>773.8609566032909</v>
       </c>
       <c r="R9">
-        <v>2809.277861972157</v>
+        <v>6964.748609429618</v>
       </c>
       <c r="S9">
-        <v>0.01579733847103141</v>
+        <v>0.04978337642204241</v>
       </c>
       <c r="T9">
-        <v>0.01579733847103142</v>
+        <v>0.0497833764220424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>361.6934600170349</v>
+        <v>502.234974412227</v>
       </c>
       <c r="R10">
-        <v>3255.241140153315</v>
+        <v>4520.114769710042</v>
       </c>
       <c r="S10">
-        <v>0.01830511206881029</v>
+        <v>0.03230936070637835</v>
       </c>
       <c r="T10">
-        <v>0.0183051120688103</v>
+        <v>0.03230936070637835</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>292.5140750397539</v>
+        <v>380.460978069246</v>
       </c>
       <c r="R11">
-        <v>2632.626675357786</v>
+        <v>3424.148802623214</v>
       </c>
       <c r="S11">
-        <v>0.01480398048959717</v>
+        <v>0.02447549772798442</v>
       </c>
       <c r="T11">
-        <v>0.01480398048959718</v>
+        <v>0.02447549772798441</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>1659.201125457497</v>
+        <v>273.9966234845199</v>
       </c>
       <c r="R12">
-        <v>14932.81012911747</v>
+        <v>2465.96961136068</v>
       </c>
       <c r="S12">
-        <v>0.08397127928374819</v>
+        <v>0.01762652183044697</v>
       </c>
       <c r="T12">
-        <v>0.08397127928374819</v>
+        <v>0.01762652183044696</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>691.349622688256</v>
+        <v>123.478511106048</v>
       </c>
       <c r="R13">
-        <v>6222.146604194304</v>
+        <v>1111.306599954432</v>
       </c>
       <c r="S13">
-        <v>0.03498883369757973</v>
+        <v>0.00794351639783915</v>
       </c>
       <c r="T13">
-        <v>0.03498883369757973</v>
+        <v>0.007943516397839148</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>57.55180852897134</v>
+        <v>25.483752474168</v>
       </c>
       <c r="R14">
-        <v>517.9662767607419</v>
+        <v>229.353772267512</v>
       </c>
       <c r="S14">
-        <v>0.002912666169954844</v>
+        <v>0.001639399469946414</v>
       </c>
       <c r="T14">
-        <v>0.002912666169954844</v>
+        <v>0.001639399469946414</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>66.68796182454332</v>
+        <v>16.538929458296</v>
       </c>
       <c r="R15">
-        <v>600.19165642089</v>
+        <v>148.850365124664</v>
       </c>
       <c r="S15">
-        <v>0.003375041989372201</v>
+        <v>0.001063968589982815</v>
       </c>
       <c r="T15">
-        <v>0.003375041989372202</v>
+        <v>0.001063968589982815</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>53.932873070124</v>
+        <v>12.528831321008</v>
       </c>
       <c r="R16">
-        <v>485.395857631116</v>
+        <v>112.759481889072</v>
       </c>
       <c r="S16">
-        <v>0.002729513786881973</v>
+        <v>0.0008059943074525227</v>
       </c>
       <c r="T16">
-        <v>0.002729513786881973</v>
+        <v>0.0008059943074525224</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>178.9859756837311</v>
+        <v>322.887635947785</v>
       </c>
       <c r="R17">
-        <v>1610.87378115358</v>
+        <v>2905.988723530065</v>
       </c>
       <c r="S17">
-        <v>0.009058384255777648</v>
+        <v>0.02077173759090719</v>
       </c>
       <c r="T17">
-        <v>0.00905838425577765</v>
+        <v>0.02077173759090718</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>74.57919649211732</v>
+        <v>145.511590742784</v>
       </c>
       <c r="R18">
-        <v>671.2127684290559</v>
+        <v>1309.604316685056</v>
       </c>
       <c r="S18">
-        <v>0.003774413144560961</v>
+        <v>0.009360930066189868</v>
       </c>
       <c r="T18">
-        <v>0.003774413144560962</v>
+        <v>0.009360930066189866</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>6.208389353087554</v>
+        <v>30.03098537061901</v>
       </c>
       <c r="R19">
-        <v>55.87550417778799</v>
+        <v>270.278868335571</v>
       </c>
       <c r="S19">
-        <v>0.0003142032561764426</v>
+        <v>0.001931928256973414</v>
       </c>
       <c r="T19">
-        <v>0.0003142032561764427</v>
+        <v>0.001931928256973414</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>7.19394998616222</v>
+        <v>19.490078987043</v>
       </c>
       <c r="R20">
-        <v>64.74554987545999</v>
+        <v>175.410710883387</v>
       </c>
       <c r="S20">
-        <v>0.0003640819513516047</v>
+        <v>0.00125381947548583</v>
       </c>
       <c r="T20">
-        <v>0.0003640819513516048</v>
+        <v>0.00125381947548583</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>5.817997444535999</v>
+        <v>14.764432769214</v>
       </c>
       <c r="R21">
-        <v>52.36197700082399</v>
+        <v>132.879894922926</v>
       </c>
       <c r="S21">
-        <v>0.0002944457310156161</v>
+        <v>0.0009498131517500997</v>
       </c>
       <c r="T21">
-        <v>0.0002944457310156162</v>
+        <v>0.0009498131517500993</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>1718.85478779291</v>
+        <v>98.77577333777387</v>
       </c>
       <c r="R22">
-        <v>15469.69309013619</v>
+        <v>888.9819600399647</v>
       </c>
       <c r="S22">
-        <v>0.08699031914781781</v>
+        <v>0.006354360513336468</v>
       </c>
       <c r="T22">
-        <v>0.08699031914781782</v>
+        <v>0.006354360513336466</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>716.2058841232214</v>
+        <v>44.51399900475733</v>
       </c>
       <c r="R23">
-        <v>6445.852957108992</v>
+        <v>400.625991042816</v>
       </c>
       <c r="S23">
-        <v>0.03624679576069599</v>
+        <v>0.002863637388079634</v>
       </c>
       <c r="T23">
-        <v>0.036246795760696</v>
+        <v>0.002863637388079634</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>59.62098272377123</v>
+        <v>9.186891890025667</v>
       </c>
       <c r="R24">
-        <v>536.588844513941</v>
+        <v>82.682027010231</v>
       </c>
       <c r="S24">
-        <v>0.003017385966447482</v>
+        <v>0.0005910034525029189</v>
       </c>
       <c r="T24">
-        <v>0.003017385966447483</v>
+        <v>0.0005910034525029188</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>69.08561036484389</v>
+        <v>5.962283500600778</v>
       </c>
       <c r="R25">
-        <v>621.770493283595</v>
+        <v>53.660551505407</v>
       </c>
       <c r="S25">
-        <v>0.003496385696360307</v>
+        <v>0.0003835606400769786</v>
       </c>
       <c r="T25">
-        <v>0.003496385696360308</v>
+        <v>0.0003835606400769786</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>55.87193479660201</v>
+        <v>4.516643260098444</v>
       </c>
       <c r="R26">
-        <v>502.847413169418</v>
+        <v>40.649789340886</v>
       </c>
       <c r="S26">
-        <v>0.002827648661120089</v>
+        <v>0.0002905609201018651</v>
       </c>
       <c r="T26">
-        <v>0.00282764866112009</v>
+        <v>0.000290560920101865</v>
       </c>
     </row>
   </sheetData>
